--- a/Pembagian Tugas, Breakdown, Burndown chart (Kelompok 9).xlsx
+++ b/Pembagian Tugas, Breakdown, Burndown chart (Kelompok 9).xlsx
@@ -5,18 +5,17 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEMESTER 3\PROYEK 2\TUGAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEMESTER 3\PROYEK 2\TUGAS\DATA-PROYEK-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C625D2-6290-4FAA-8E03-D21657161BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70655A2-EF3B-40EC-9AEE-44526115C6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pembagian tugas" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="burndown chart" sheetId="4" r:id="rId3"/>
-    <sheet name="Pelaksanaan" sheetId="5" r:id="rId4"/>
+    <sheet name="burndown chart" sheetId="4" r:id="rId2"/>
+    <sheet name="Pelaksanaan" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,105 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Lenovo</author>
-  </authors>
-  <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{EC0B270B-2744-40B6-8B35-E886C8AFF01A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Lenovo:
-Selesai tgl 10 Sep 2021</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{71A9CC79-A1CB-4839-960B-E50094DD4FE2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Lenovo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-tgl selesai 10 sep 2021</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{3703AFB6-3B16-4C4A-8FBE-27CBAF74496B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Lenovo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-tgl selesai 10 Sep 2021</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{12679064-88B3-44AE-BC0B-06B749F4C525}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Lenovo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-tgl selesai 7 Sep 2021</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
   <si>
     <t>List Pekerjaan</t>
   </si>
@@ -175,9 +77,6 @@
     <t>Page Khusus Chord Lagu</t>
   </si>
   <si>
-    <t>Page Chord Lagu</t>
-  </si>
-  <si>
     <t>Data Divisi Peminatan SEBURA</t>
   </si>
   <si>
@@ -259,12 +158,6 @@
     <t>da1</t>
   </si>
   <si>
-    <t>pg1</t>
-  </si>
-  <si>
-    <t>pg2</t>
-  </si>
-  <si>
     <t>ke1</t>
   </si>
   <si>
@@ -364,12 +257,6 @@
     <t xml:space="preserve"> Lely - Desih</t>
   </si>
   <si>
-    <t>Lirik Lagu</t>
-  </si>
-  <si>
-    <t>Chrod Gitar</t>
-  </si>
-  <si>
     <t>PDF Surat Pendaftaran</t>
   </si>
   <si>
@@ -415,62 +302,17 @@
     <t>Desih - Alif</t>
   </si>
   <si>
-    <t>TARGET MINGGUAN</t>
-  </si>
-  <si>
-    <t>Kegiatan</t>
-  </si>
-  <si>
-    <t>KEGIATAN</t>
-  </si>
-  <si>
-    <t>BULAN</t>
-  </si>
-  <si>
-    <t>Merancang Tema sekaligus Judul yang akan diangkat</t>
-  </si>
-  <si>
-    <t>Merancang kebutuhan-kebutuhan yang akan digunakan</t>
-  </si>
-  <si>
-    <t>Mengumpulkan data-data</t>
-  </si>
-  <si>
-    <t>Membuat desain</t>
-  </si>
-  <si>
-    <t>Melakukan pengecekan</t>
-  </si>
-  <si>
-    <t>Selesai</t>
-  </si>
-  <si>
-    <t>Membuat UML Diagram</t>
-  </si>
-  <si>
-    <t>Membuat CRUD database</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>OKT</t>
-  </si>
-  <si>
-    <t>NOV</t>
-  </si>
-  <si>
-    <t>DES</t>
-  </si>
-  <si>
     <t>Hasil event</t>
+  </si>
+  <si>
+    <t>CRUD Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,39 +376,13 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="22">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,12 +433,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -659,37 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF385623"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,22 +650,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,27 +667,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,9 +702,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,15 +729,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,164 +741,83 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,194 +1159,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="E1" s="41" t="s">
+      <c r="B1" s="61"/>
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="43"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="31" t="s">
+        <v>89</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>83</v>
+        <v>40</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="33"/>
+        <v>41</v>
+      </c>
+      <c r="K4" s="28"/>
       <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="19"/>
+      <c r="A5" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="63"/>
       <c r="D5" s="8"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="M5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" s="11"/>
@@ -1667,8 +1354,8 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E8" s="11"/>
@@ -1681,14 +1368,14 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="35"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1699,8 +1386,8 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1725,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" s="12"/>
@@ -1781,12 +1468,12 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1796,13 +1483,15 @@
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1811,859 +1500,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACC58B0-988D-48CF-A913-5569740E6F33}">
-  <dimension ref="C2:AJ47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6:AJ17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="11" width="3" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" customWidth="1"/>
-    <col min="15" max="16" width="3.5703125" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" customWidth="1"/>
-    <col min="20" max="20" width="53.42578125" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" customWidth="1"/>
-    <col min="22" max="22" width="3" customWidth="1"/>
-    <col min="23" max="23" width="2.7109375" customWidth="1"/>
-    <col min="24" max="26" width="3" customWidth="1"/>
-    <col min="27" max="27" width="2.85546875" customWidth="1"/>
-    <col min="28" max="28" width="3.28515625" customWidth="1"/>
-    <col min="29" max="31" width="3" customWidth="1"/>
-    <col min="32" max="32" width="3.28515625" customWidth="1"/>
-    <col min="33" max="33" width="2.7109375" customWidth="1"/>
-    <col min="34" max="34" width="2.85546875" customWidth="1"/>
-    <col min="35" max="35" width="3" customWidth="1"/>
-    <col min="36" max="36" width="2.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C2" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-    </row>
-    <row r="3" spans="3:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="79">
-        <v>1</v>
-      </c>
-      <c r="E3" s="79">
-        <v>2</v>
-      </c>
-      <c r="F3" s="79">
-        <v>3</v>
-      </c>
-      <c r="G3" s="79">
-        <v>4</v>
-      </c>
-      <c r="H3" s="79">
-        <v>5</v>
-      </c>
-      <c r="I3" s="79">
-        <v>6</v>
-      </c>
-      <c r="J3" s="79">
-        <v>7</v>
-      </c>
-      <c r="K3" s="79">
-        <v>8</v>
-      </c>
-      <c r="L3" s="79">
-        <v>9</v>
-      </c>
-      <c r="M3" s="79">
-        <v>10</v>
-      </c>
-      <c r="N3" s="79">
-        <v>11</v>
-      </c>
-      <c r="O3" s="79">
-        <v>12</v>
-      </c>
-      <c r="P3" s="79">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="79">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="3:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="3:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="3:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="T6" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="U6" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
-      <c r="AI6" s="88"/>
-      <c r="AJ6" s="89"/>
-    </row>
-    <row r="7" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="92"/>
-    </row>
-    <row r="8" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="83">
-        <v>1</v>
-      </c>
-      <c r="V8" s="83">
-        <v>2</v>
-      </c>
-      <c r="W8" s="83">
-        <v>3</v>
-      </c>
-      <c r="X8" s="83">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="83">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="83">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="83">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="83">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="83">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="93">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="93">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="93">
-        <v>4</v>
-      </c>
-      <c r="AG8" s="93">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="93">
-        <v>2</v>
-      </c>
-      <c r="AI8" s="93">
-        <v>3</v>
-      </c>
-      <c r="AJ8" s="93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="T9" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-    </row>
-    <row r="10" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="T10" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="U10" s="84"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-    </row>
-    <row r="11" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="T11" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="U11" s="84"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-    </row>
-    <row r="12" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="T12" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-    </row>
-    <row r="13" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="T13" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-    </row>
-    <row r="14" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="T14" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-    </row>
-    <row r="15" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="T15" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-    </row>
-    <row r="16" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="T16" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-    </row>
-    <row r="17" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="T17" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-    </row>
-    <row r="18" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-    </row>
-    <row r="23" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-    </row>
-    <row r="24" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-    </row>
-    <row r="25" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="76"/>
-    </row>
-    <row r="26" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="76"/>
-    </row>
-    <row r="27" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="12"/>
-    </row>
-    <row r="28" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="76"/>
-    </row>
-    <row r="29" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="76"/>
-    </row>
-    <row r="30" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="76"/>
-    </row>
-    <row r="32" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="76"/>
-    </row>
-    <row r="33" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="77"/>
-    </row>
-    <row r="35" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="77"/>
-    </row>
-    <row r="36" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="77"/>
-    </row>
-    <row r="38" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="77"/>
-    </row>
-    <row r="39" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="77"/>
-    </row>
-    <row r="41" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="77"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="12"/>
-    </row>
-    <row r="44" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="12"/>
-    </row>
-    <row r="45" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="77"/>
-    </row>
-    <row r="46" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="77"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="U6:AJ6"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="C2:Q2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -2681,20 +1517,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="D1" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -2705,14 +1541,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>76</v>
+      <c r="C6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2752,8 +1588,8 @@
       <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>75</v>
+      <c r="D10" s="49" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="46"/>
     </row>
@@ -2761,40 +1597,40 @@
       <c r="C11" s="9">
         <v>5</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="9">
         <v>6</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="9">
         <v>7</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="24">
         <v>7</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="9">
         <v>8</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="24">
         <v>8</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="9">
         <v>9</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>74</v>
+      <c r="D15" s="50" t="s">
+        <v>71</v>
       </c>
       <c r="E15" s="46"/>
     </row>
@@ -2802,270 +1638,270 @@
       <c r="C16" s="9">
         <v>10</v>
       </c>
-      <c r="D16" s="54"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="47"/>
     </row>
     <row r="17" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="9">
         <v>11</v>
       </c>
-      <c r="D17" s="54"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="47"/>
     </row>
     <row r="18" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="9">
         <v>12</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="48"/>
     </row>
     <row r="19" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="9">
         <v>13</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="49"/>
+      <c r="D19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="9">
         <v>14</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="9">
         <v>15</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="51"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="9">
         <v>16</v>
       </c>
-      <c r="D22" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="49"/>
+      <c r="D22" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="9">
         <v>17</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="51"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="9">
         <v>18</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="49"/>
+      <c r="D24" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="9">
         <v>19</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="9">
         <v>20</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="9">
         <v>21</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="24">
         <v>21</v>
       </c>
-      <c r="E27" s="30"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="9">
         <v>22</v>
       </c>
-      <c r="D28" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="49"/>
+      <c r="D28" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="9">
         <v>23</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="50"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" s="9">
         <v>24</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="45"/>
     </row>
     <row r="31" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="9">
         <v>25</v>
       </c>
-      <c r="D31" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="49"/>
+      <c r="D31" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="9">
         <v>26</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="51"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="45"/>
     </row>
     <row r="33" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="9">
         <v>27</v>
       </c>
-      <c r="D33" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="49"/>
+      <c r="D33" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="9">
         <v>28</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="50"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="9">
         <v>29</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="50"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="9">
         <v>30</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="50"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" s="9">
         <v>31</v>
       </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="51"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="45"/>
     </row>
     <row r="38" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="9">
         <v>32</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="24">
         <v>32</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="9">
         <v>33</v>
       </c>
-      <c r="D39" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="49"/>
+      <c r="D39" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="9">
         <v>34</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="50"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="44"/>
     </row>
     <row r="41" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="9">
         <v>35</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="51"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="45"/>
     </row>
     <row r="42" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" s="9">
         <v>36</v>
       </c>
-      <c r="D42" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="49"/>
+      <c r="D42" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" s="9">
         <v>37</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="50"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="9">
         <v>38</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="50"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="44"/>
     </row>
     <row r="45" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" s="9">
         <v>39</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="50"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="44"/>
     </row>
     <row r="46" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" s="9">
         <v>40</v>
       </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="51"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="45"/>
     </row>
     <row r="47" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="9">
         <v>41</v>
       </c>
-      <c r="D47" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="49"/>
+      <c r="D47" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="9">
         <v>42</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="51"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="45"/>
     </row>
     <row r="49" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" s="9">
         <v>43</v>
       </c>
-      <c r="D49" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="49"/>
+      <c r="D49" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="43"/>
     </row>
     <row r="50" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" s="9">
         <v>44</v>
       </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="51"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="45"/>
     </row>
     <row r="51" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" s="9">
@@ -3074,19 +1910,10 @@
       <c r="D51" s="9">
         <v>45</v>
       </c>
-      <c r="E51" s="30"/>
+      <c r="E51" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="E47:E48"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E15:E18"/>
@@ -3103,17 +1930,26 @@
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="E47:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,43 +1961,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="H1" s="58" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="H1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="59"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>55</v>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>94</v>
+      <c r="I2" s="75" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3169,19 +2005,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="39" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>95</v>
+      <c r="I3" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3189,19 +2025,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="39" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>78</v>
+      <c r="I4" s="32" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3209,501 +2045,558 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="61"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="32" t="s">
-        <v>28</v>
+      <c r="B6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="72" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="J8" s="34"/>
+      <c r="B8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="J9" s="34"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="74"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="J10" s="34"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="54"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="J11" s="34"/>
+      <c r="B11" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="J12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="73"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="J13" s="34"/>
+      <c r="B13" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="J14" s="34"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="73"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="J15" s="34"/>
+      <c r="B15" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="J16" s="34"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="73"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="J17" s="34"/>
+      <c r="B17" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="J18" s="34"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="74"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="J19" s="34"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="54"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="J20" s="34"/>
+      <c r="B20" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="J21" s="34"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="74"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="J22" s="34"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="54"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="J23" s="34"/>
+      <c r="B23" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="J24" s="34"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="74"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="J25" s="34"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="54"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="J26" s="34"/>
+      <c r="B26" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="74"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="B29" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="53" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="74"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="B32" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="53" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="74"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="B35" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="53" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="74"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="B38" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="53" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="54"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="B40" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="53" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="108"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="B42" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="53" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="109"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="B43" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="53" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>43</v>
       </c>
-      <c r="B45" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="B45" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="77"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="54"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="53" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="C47" s="79"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B40:B41"/>
+  <mergeCells count="53">
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
@@ -3714,37 +2607,43 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010039BFDF556BB88E4AA25900698BA1D2EA" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="390ad958ac69788edf09d2589b9186f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8404895f7d44761b773ad0796dd4d87c">
     <xsd:element name="properties">
@@ -3858,33 +2757,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8C883D4-FAE9-44EF-BA60-F1315B8F31DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50200759-DDA1-4F0A-89F4-D12F34C533A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3905,9 +2781,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50200759-DDA1-4F0A-89F4-D12F34C533A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8C883D4-FAE9-44EF-BA60-F1315B8F31DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>